--- a/Data/poids.xlsx
+++ b/Data/poids.xlsx
@@ -259,10 +259,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -489,6 +489,14 @@
         <v>90.7</v>
       </c>
     </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>91.8</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Data/poids.xlsx
+++ b/Data/poids.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Départ aux Sables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Élections</t>
   </si>
 </sst>
 </file>
@@ -259,10 +262,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -497,6 +500,33 @@
         <v>91.8</v>
       </c>
     </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>45479</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>91.4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>91.1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Data/poids.xlsx
+++ b/Data/poids.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -37,7 +37,19 @@
     <t xml:space="preserve">Départ aux Sables</t>
   </si>
   <si>
+    <t xml:space="preserve">Arrivée Lou</t>
+  </si>
+  <si>
     <t xml:space="preserve">Élections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficultés avec l'assurance du prêt Sogecap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Départ Lou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crise d'asthénie (clip vidéo Euro-Par)</t>
   </si>
 </sst>
 </file>
@@ -262,10 +274,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,6 +519,9 @@
       <c r="B28" s="2" t="n">
         <v>91.5</v>
       </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -516,7 +531,7 @@
         <v>91.4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,6 +540,55 @@
       </c>
       <c r="B30" s="2" t="n">
         <v>91.1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>45494</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>93.1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>91.8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/poids.xlsx
+++ b/Data/poids.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Enterrement Colette </t>
   </si>
   <si>
+    <t xml:space="preserve">Crise d'asthénie (fatigue après l'enterrement)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Départ aux Sables</t>
   </si>
   <si>
@@ -43,7 +46,7 @@
     <t xml:space="preserve">Élections</t>
   </si>
   <si>
-    <t xml:space="preserve">Difficultés avec l'assurance du prêt Sogecap</t>
+    <t xml:space="preserve">Crise d'asthénie (prêt Sogecap)</t>
   </si>
   <si>
     <t xml:space="preserve">Départ Lou</t>
@@ -274,10 +277,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -468,6 +471,9 @@
       <c r="B22" s="2" t="n">
         <v>91</v>
       </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -477,7 +483,7 @@
         <v>90.3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,7 +526,7 @@
         <v>91.5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,7 +537,7 @@
         <v>91.4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,8 +547,8 @@
       <c r="B30" s="2" t="n">
         <v>91.1</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>7</v>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,7 +567,7 @@
         <v>91.2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,7 +586,7 @@
         <v>93.1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -589,6 +595,14 @@
       </c>
       <c r="B35" s="2" t="n">
         <v>91.8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>91.2</v>
       </c>
     </row>
   </sheetData>
